--- a/Document/강일구/Main_UI시안_강일구.xlsx
+++ b/Document/강일구/Main_UI시안_강일구.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangilgu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\강일구\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t xml:space="preserve">작성일자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,13 +192,29 @@
   </si>
   <si>
     <t xml:space="preserve"> - 차오르고 줄어드는 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획의도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저가 쉽게 UI에서 스킬 사용키와 변신 키에 대한 정보를 얻을 수 있도록 제작함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 획득한 버프(보상) 내용을 알 수 있도록 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 남은 보상의 양을 확인 할 수 있도록 제작 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1066,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1131,36 +1147,56 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1173,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L94"/>
+  <dimension ref="B2:K94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1186,23 +1222,23 @@
     <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="L4" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="L5" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="L6" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
         <v>20</v>
       </c>
     </row>
